--- a/job_links.xlsx
+++ b/job_links.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2599E789-F96B-46E6-9083-A1F704631F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02BB0823-2E29-401A-93CB-B3B92673C6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+  <si>
+    <t>Links</t>
+  </si>
   <si>
     <t>https://www.linkedin.com/jobs/view/2642735068/?alternateChannel=search&amp;refId=V7qh%2F7YOXM6rnRdfIu8lCA%3D%3D&amp;trackingId=YCM8qAXxtQH80KA9b2C6hA%3D%3D,</t>
   </si>
@@ -1051,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2178,8 +2181,8 @@
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225">
-        <v>0</v>
+      <c r="A225" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
